--- a/vendors/pay.xlsx
+++ b/vendors/pay.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16050" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="201508工资条" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'201508工资条'!$A$2:$R$5</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,47 +59,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他应发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应发合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代扣费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他应扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应扣合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实发收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补缴四金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>524684252@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>342622198903103607</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>其他应发</t>
+  </si>
+  <si>
+    <t>代扣费用</t>
+  </si>
+  <si>
+    <t>补缴四金</t>
+  </si>
+  <si>
+    <t>其他应扣</t>
+  </si>
+  <si>
+    <t>应扣合计</t>
+  </si>
+  <si>
+    <t>实发收入</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>应发合计</t>
+  </si>
+  <si>
+    <t>741187338@qq.com</t>
   </si>
 </sst>
 </file>
@@ -110,7 +101,7 @@
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,11 +116,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -226,10 +212,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -238,70 +224,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -312,6 +298,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -600,36 +591,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="9"/>
-    <col min="2" max="2" width="7.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="9"/>
+    <col min="2" max="2" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="17" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="9" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="9"/>
-    <col min="11" max="11" width="10.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="9"/>
-    <col min="13" max="14" width="8.83203125" style="11"/>
-    <col min="15" max="15" width="9.1640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="9" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="9"/>
+    <col min="11" max="11" width="10.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="9"/>
+    <col min="13" max="14" width="8.85546875" style="11"/>
+    <col min="15" max="15" width="9.140625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="9"/>
+    <col min="19" max="19" width="10.140625" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A1" s="9">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9">
+        <v>13</v>
+      </c>
+      <c r="N1" s="9">
+        <v>14</v>
+      </c>
+      <c r="O1" s="9">
+        <v>15</v>
+      </c>
+      <c r="P1" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="9">
+        <v>17</v>
+      </c>
+      <c r="R1" s="9">
+        <v>18</v>
+      </c>
+      <c r="S1" s="9">
+        <v>19</v>
+      </c>
+    </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
@@ -650,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>1</v>
@@ -662,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>3</v>
@@ -677,30 +727,30 @@
         <v>5</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="16" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>810002</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E3" s="18">
         <v>168</v>
@@ -799,6 +849,7 @@
     <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/vendors/pay.xlsx
+++ b/vendors/pay.xlsx
@@ -13,16 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'201508工资条'!$A$2:$R$5</definedName>
   </definedNames>
   <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>姓名</t>
   </si>
@@ -59,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>342622198903103607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -91,6 +82,21 @@
   </si>
   <si>
     <t>741187338@qq.com</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>34262607</t>
+  </si>
+  <si>
+    <t>342603607</t>
   </si>
 </sst>
 </file>
@@ -220,16 +226,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,12 +257,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,6 +273,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -593,267 +605,342 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="9"/>
-    <col min="2" max="2" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="9" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="9"/>
-    <col min="11" max="11" width="10.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="9"/>
-    <col min="13" max="14" width="8.85546875" style="11"/>
-    <col min="15" max="15" width="9.140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="10" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="7.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="7"/>
+    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="7"/>
+    <col min="13" max="14" width="8.85546875" style="9"/>
+    <col min="15" max="15" width="9.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="10" style="7" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A1" s="9">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="7">
         <v>2</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <v>3</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="7">
         <v>4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="7">
         <v>5</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="7">
         <v>6</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="7">
         <v>7</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>8</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="7">
         <v>9</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="7">
         <v>10</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="7">
         <v>11</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="7">
         <v>12</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="7">
         <v>13</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="7">
         <v>14</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="7">
         <v>15</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="7">
         <v>16</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="7">
         <v>17</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="7">
         <v>18</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>810002</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="D3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="14">
+        <v>168</v>
+      </c>
+      <c r="F3" s="14">
+        <v>168</v>
+      </c>
+      <c r="G3" s="14">
+        <v>168</v>
+      </c>
+      <c r="H3" s="14">
+        <v>168</v>
+      </c>
+      <c r="I3" s="14">
+        <v>168</v>
+      </c>
+      <c r="J3" s="14">
+        <v>168</v>
+      </c>
+      <c r="K3" s="14">
+        <v>168</v>
+      </c>
+      <c r="L3" s="14">
+        <v>168</v>
+      </c>
+      <c r="M3" s="14">
+        <v>168</v>
+      </c>
+      <c r="N3" s="14">
+        <v>168</v>
+      </c>
+      <c r="O3" s="14">
+        <v>168</v>
+      </c>
+      <c r="P3" s="14">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>168</v>
+      </c>
+      <c r="R3" s="14">
+        <v>168</v>
+      </c>
+      <c r="S3" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>810002</v>
+      </c>
+      <c r="C4" s="22">
+        <v>74</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="14">
+        <v>168</v>
+      </c>
+      <c r="F4" s="14">
+        <v>168</v>
+      </c>
+      <c r="G4" s="14">
+        <v>168</v>
+      </c>
+      <c r="H4" s="14">
+        <v>168</v>
+      </c>
+      <c r="I4" s="14">
+        <v>168</v>
+      </c>
+      <c r="J4" s="14">
+        <v>168</v>
+      </c>
+      <c r="K4" s="14">
+        <v>168</v>
+      </c>
+      <c r="L4" s="14">
+        <v>168</v>
+      </c>
+      <c r="M4" s="14">
+        <v>168</v>
+      </c>
+      <c r="N4" s="14">
+        <v>168</v>
+      </c>
+      <c r="O4" s="14">
+        <v>168</v>
+      </c>
+      <c r="P4" s="14">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>168</v>
+      </c>
+      <c r="R4" s="14">
+        <v>168</v>
+      </c>
+      <c r="S4" s="10">
         <v>2</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="19">
+        <v>810002</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21">
+        <v>168</v>
+      </c>
+      <c r="F5" s="21">
+        <v>168</v>
+      </c>
+      <c r="G5" s="21">
+        <v>168</v>
+      </c>
+      <c r="H5" s="21">
+        <v>168</v>
+      </c>
+      <c r="I5" s="21">
+        <v>168</v>
+      </c>
+      <c r="J5" s="21">
+        <v>168</v>
+      </c>
+      <c r="K5" s="21">
+        <v>168</v>
+      </c>
+      <c r="L5" s="21">
+        <v>168</v>
+      </c>
+      <c r="M5" s="21">
+        <v>168</v>
+      </c>
+      <c r="N5" s="21">
+        <v>168</v>
+      </c>
+      <c r="O5" s="21">
+        <v>168</v>
+      </c>
+      <c r="P5" s="21">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>168</v>
+      </c>
+      <c r="R5" s="21">
+        <v>168</v>
+      </c>
+      <c r="S5" s="20">
         <v>3</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="16" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <v>810002</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="18">
-        <v>168</v>
-      </c>
-      <c r="F3" s="18">
-        <v>168</v>
-      </c>
-      <c r="G3" s="18">
-        <v>168</v>
-      </c>
-      <c r="H3" s="18">
-        <v>168</v>
-      </c>
-      <c r="I3" s="18">
-        <v>168</v>
-      </c>
-      <c r="J3" s="18">
-        <v>168</v>
-      </c>
-      <c r="K3" s="18">
-        <v>168</v>
-      </c>
-      <c r="L3" s="18">
-        <v>168</v>
-      </c>
-      <c r="M3" s="18">
-        <v>168</v>
-      </c>
-      <c r="N3" s="18">
-        <v>168</v>
-      </c>
-      <c r="O3" s="18">
-        <v>168</v>
-      </c>
-      <c r="P3" s="18">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>168</v>
-      </c>
-      <c r="R3" s="18">
-        <v>168</v>
-      </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-    </row>
-    <row r="4" spans="1:21" s="16" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="1:21" s="16" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2" display="741187338@qq.com"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>